--- a/Kraga Kodo/kraga kodo bom.xlsx
+++ b/Kraga Kodo/kraga kodo bom.xlsx
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,7 +1476,7 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="C37" t="s">
         <v>32</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C38" t="s">
         <v>32</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       <c r="C39" t="s">
         <v>32</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       <c r="C41" t="s">
         <v>32</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       <c r="C43" t="s">
         <v>32</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="C49" t="s">
         <v>32</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       <c r="C50" t="s">
         <v>32</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="C51" t="s">
         <v>32</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       <c r="C52" t="s">
         <v>32</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="C53" t="s">
         <v>32</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="C54" t="s">
         <v>32</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="C55" t="s">
         <v>32</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="C56" t="s">
         <v>32</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       <c r="C57" t="s">
         <v>32</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       <c r="C58" t="s">
         <v>32</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="C59" t="s">
         <v>32</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="C60" t="s">
         <v>32</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       <c r="C61" t="s">
         <v>22</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="C62" t="s">
         <v>22</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       <c r="C63" t="s">
         <v>22</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="C64" t="s">
         <v>22</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="C65" t="s">
         <v>22</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="C67" t="s">
         <v>22</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       <c r="C68" t="s">
         <v>22</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       <c r="C69" t="s">
         <v>22</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       <c r="C70" t="s">
         <v>22</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>1</v>
       </c>
     </row>
